--- a/data/georgia_census/mcxeta-mtianeti/tianeti/education_graduates.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/tianeti/education_graduates.xlsx
@@ -1860,13 +1860,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6DD0950-21DD-4A26-ABEE-2886E53AC898}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6F1C4FC-E8D7-491F-881D-BDE9C53887D5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A101B000-6CC9-4B70-A214-BC7E051F9AC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E6515CD-7418-499C-80DA-FFE3EB2C859D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142E14AB-5613-4373-87F3-97E85B618382}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D858406-BAFD-491A-8B41-1EA088BDC1AB}"/>
 </file>